--- a/1a.xlsx
+++ b/1a.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="parts-list-1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="loopers" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="83">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -58,10 +59,35 @@
     <t xml:space="preserve">index-page-parts-list-brand-pdf.html</t>
   </si>
   <si>
-    <t xml:space="preserve">images/yellow-pdf.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images/fon-parts-one.jpg</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">species-img/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">yellow-pdf.png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">images/species-img/fon-parts.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">bernina-home</t>
@@ -191,6 +217,84 @@
   </si>
   <si>
     <t xml:space="preserve">zoje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare-parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loopers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index-page-category-selection.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/species-img/looper-species.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">american</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borkert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excluding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gribetz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jiannlian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingtax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shingling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shingray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truasuer</t>
   </si>
 </sst>
 </file>
@@ -200,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,6 +332,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -287,6 +396,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -308,17 +421,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="17.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.18"/>
@@ -379,7 +492,7 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -402,7 +515,7 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -425,7 +538,7 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -448,7 +561,7 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -471,7 +584,7 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -494,7 +607,7 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -517,7 +630,7 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -540,7 +653,7 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -563,7 +676,7 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -586,7 +699,7 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -609,7 +722,7 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -632,7 +745,7 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -655,7 +768,7 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -678,7 +791,7 @@
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -701,7 +814,7 @@
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -724,7 +837,7 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -747,7 +860,7 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -770,7 +883,7 @@
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -793,7 +906,7 @@
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -816,7 +929,7 @@
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -839,7 +952,7 @@
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -862,7 +975,7 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -885,7 +998,7 @@
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -908,7 +1021,7 @@
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -931,7 +1044,7 @@
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -954,7 +1067,7 @@
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -977,7 +1090,7 @@
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1000,7 +1113,7 @@
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1023,7 +1136,7 @@
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1046,7 +1159,7 @@
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1069,7 +1182,7 @@
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1092,7 +1205,7 @@
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1115,7 +1228,7 @@
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1138,7 +1251,7 @@
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1161,7 +1274,7 @@
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1184,7 +1297,7 @@
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1207,7 +1320,7 @@
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1230,7 +1343,7 @@
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1253,7 +1366,7 @@
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1276,7 +1389,7 @@
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1299,7 +1412,7 @@
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1322,7 +1435,7 @@
       <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1345,7 +1458,7 @@
       <c r="F44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1368,7 +1481,7 @@
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1381,4 +1494,1025 @@
     <oddFooter>&amp;CСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/1a.xlsx
+++ b/1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parts-list-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="83">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
     <t xml:space="preserve">href</t>
   </si>
   <si>
@@ -59,32 +62,7 @@
     <t xml:space="preserve">index-page-parts-list-brand-pdf.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">species-img/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">yellow-pdf.png</t>
-    </r>
+    <t xml:space="preserve">images/species-img/yellow-pdf.png</t>
   </si>
   <si>
     <t xml:space="preserve">images/species-img/fon-parts.jpg</t>
@@ -228,7 +206,7 @@
     <t xml:space="preserve">altin</t>
   </si>
   <si>
-    <t xml:space="preserve">index-page-category-selection.html</t>
+    <t xml:space="preserve">index-page-category-product.html</t>
   </si>
   <si>
     <t xml:space="preserve">images/species-img/looper-species.png</t>
@@ -265,9 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">jiannlian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kingtax</t>
   </si>
   <si>
     <t xml:space="preserve">lewis</t>
@@ -304,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -332,11 +307,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,22 +391,23 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D28" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,12 +432,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="AME1" s="0"/>
+      <c r="M1" s="2"/>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
@@ -475,1014 +448,1146 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>13</v>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>13</v>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>13</v>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>13</v>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>13</v>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>13</v>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>13</v>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>13</v>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>13</v>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>13</v>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>13</v>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>13</v>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>13</v>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>13</v>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>13</v>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>13</v>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>13</v>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>13</v>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>13</v>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>13</v>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>13</v>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>13</v>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>13</v>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>13</v>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>13</v>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>13</v>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1501,20 +1606,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,971 +1645,1100 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>60</v>
+      <c r="E23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
+      <c r="E28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>60</v>
+      <c r="E30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>60</v>
+      <c r="E33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
+      <c r="E34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>60</v>
+      <c r="E38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>60</v>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
+      <c r="E40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
